--- a/CRM/Mapeos_UBI_CRM_V1.xlsx
+++ b/CRM/Mapeos_UBI_CRM_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="375" windowWidth="9225" windowHeight="4650" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="375" windowWidth="9225" windowHeight="4650" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PS_CM" sheetId="10" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="182">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -2556,7 +2556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2566,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3004,9 +3004,7 @@
       <c r="Q14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="53" t="s">
-        <v>164</v>
-      </c>
+      <c r="R14" s="53"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="23">
@@ -3133,7 +3131,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R17" s="53" t="s">
         <v>164</v>
@@ -3311,9 +3309,7 @@
       <c r="Q21" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="48" t="s">
-        <v>164</v>
-      </c>
+      <c r="R21" s="48"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="23">
@@ -3399,9 +3395,7 @@
       <c r="Q23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R23" s="48" t="s">
-        <v>164</v>
-      </c>
+      <c r="R23" s="48"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="23">
@@ -3435,9 +3429,7 @@
       <c r="Q24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="48" t="s">
-        <v>164</v>
-      </c>
+      <c r="R24" s="48"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="23">
@@ -4399,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4616,7 +4608,9 @@
       <c r="Q9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="52"/>
+      <c r="R9" s="52" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="23">
@@ -4745,7 +4739,9 @@
       <c r="Q12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="53"/>
+      <c r="R12" s="53" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="23">
@@ -4788,7 +4784,9 @@
       <c r="Q13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="53"/>
+      <c r="R13" s="53" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="23">
